--- a/Borang Penangguhan dan Penggantian.xlsx
+++ b/Borang Penangguhan dan Penggantian.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT\Documents\FAKHRUL HAQIMI\FORM WEBSITE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61760D4-41D4-4B7C-A2D6-6EDD687FD628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -29,7 +35,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -38,7 +44,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.0"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -47,7 +53,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.0"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -56,18 +62,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TEL: 07-9431633 FAX: 07-9436075</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12.0"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TEL: 07-9431633 FAX: 07-9436075</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -77,7 +83,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -86,7 +92,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -95,7 +101,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -104,7 +110,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -113,136 +119,136 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Saya seperti nama dan maklumat di atas ingin memaklumkan penangguhan kuliah seperti butiran berikut:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Bil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tarikh</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jam</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Hari</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Waktu Kuliah</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sebab Penangguhan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Saya akan menggantikan kuliah seperti butiran berikut:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tarikh Gantian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Waktu Gantian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tempat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sekian,terima kasih Yang benar,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Saya seperti nama dan maklumat di atas ingin memaklumkan penangguhan kuliah seperti butiran berikut:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tarikh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hari</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Waktu Kuliah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sebab Penangguhan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Saya akan menggantikan kuliah seperti butiran berikut:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tarikh Gantian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Waktu Gantian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tempat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sekian,terima kasih Yang benar,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -251,36 +257,17 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(                                      )                                                                  Tarikh:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pengesahan KPro/KUPA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Catatan:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(                                      )                                                                  Tarikh:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -289,7 +276,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -298,22 +285,39 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(                                      )                                                                  Tarikh:</t>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(                                      )                                                                  Tarikh:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pengesahan KPro/KUPA/TPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 
+Catatan:</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -324,6 +328,7 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -334,6 +339,18 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -376,48 +393,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,11 +445,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -438,9 +466,15 @@
       <xdr:rowOff>150357</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5674995" cy="0"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr name="Shape 2" id="2"/>
+        <xdr:cNvPr id="2" name="Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -450,8 +484,12 @@
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="5674995" h="0">
+            <a:path w="5674995">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
@@ -467,6 +505,13 @@
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-MY"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
@@ -478,9 +523,15 @@
       <xdr:rowOff>160899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5674360" cy="0"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr name="Shape 3" id="3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -490,8 +541,12 @@
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="5674360" h="0">
+            <a:path w="5674360">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
@@ -518,9 +573,15 @@
       <xdr:rowOff>401690</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5674360" cy="0"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr name="Shape 4" id="4"/>
+        <xdr:cNvPr id="4" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -530,8 +591,12 @@
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="5674360" h="0">
+            <a:path w="5674360">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
@@ -560,16 +625,22 @@
     <xdr:ext cx="1273477" cy="527506"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr name="image1.png" id="5"/>
+        <xdr:cNvPr id="5" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,16 +670,22 @@
     <xdr:ext cx="1230304" cy="981899"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr name="image2.png" id="6"/>
+        <xdr:cNvPr id="6" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -674,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,9 +783,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,6 +835,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,164 +1028,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="6.888889"/>
-    <col min="2" max="2" customWidth="1" width="16.222222"/>
-    <col min="3" max="3" customWidth="1" width="19.777778"/>
-    <col min="4" max="4" customWidth="1" width="12.666667"/>
-    <col min="5" max="5" customWidth="1" width="26.666667"/>
-    <col min="6" max="6" customWidth="1" width="28"/>
-    <col min="7" max="7" customWidth="1" width="12.666667"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="161.00" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="161.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="145.50" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A4" s="7">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.00" customHeight="1">
-      <c r="A5" s="7">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="21.50" customHeight="1">
-      <c r="A6" s="7">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="39.50" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.00" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.00" customHeight="1">
-      <c r="A9" s="7">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="21.00" customHeight="1">
-      <c r="A10" s="7">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="21.25" customHeight="1">
-      <c r="A11" s="7">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="74.25" customHeight="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
@@ -1083,48 +1198,48 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="31.50" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="64.00" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="141.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
